--- a/talon.xlsx
+++ b/talon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomcraig/dev/talon_user/talon_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F50131-9A7C-0141-8BAA-47BB69044E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C73DC8-04A9-2444-8412-629C335DBC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{794A9345-25FB-5D47-978A-285DA75F2C43}"/>
   </bookViews>
@@ -501,9 +501,6 @@
     <t>git changes</t>
   </si>
   <si>
-    <t>git stage [all]</t>
-  </si>
-  <si>
     <t>git unstage</t>
   </si>
   <si>
@@ -976,6 +973,9 @@
   </si>
   <si>
     <t>git branch choose base</t>
+  </si>
+  <si>
+    <t>git stage &lt;t&gt;</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1994,7 +1994,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="M1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" thickTop="1">
@@ -2017,16 +2017,16 @@
         <v>81</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>124</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2034,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>19</v>
@@ -2049,7 +2049,7 @@
         <v>82</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>125</v>
@@ -2058,10 +2058,10 @@
         <v>154</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2069,7 +2069,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>25</v>
@@ -2084,19 +2084,19 @@
         <v>83</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>132</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2117,19 +2117,19 @@
         <v>84</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>134</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2152,16 +2152,16 @@
         <v>85</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>126</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2182,19 +2182,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>127</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2217,19 +2217,19 @@
         <v>88</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>128</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2237,39 +2237,39 @@
         <v>21</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>220</v>
-      </c>
       <c r="H9" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>129</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>51</v>
@@ -2281,22 +2281,22 @@
         <v>46</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2313,17 +2313,17 @@
         <v>49</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" s="35"/>
       <c r="I11" s="10" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2337,22 +2337,22 @@
         <v>53</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>257</v>
-      </c>
       <c r="H12" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>133</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2366,57 +2366,57 @@
         <v>54</v>
       </c>
       <c r="D13" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>297</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>298</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>135</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" s="3"/>
       <c r="J14" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>108</v>
@@ -2425,7 +2425,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>91</v>
@@ -2434,10 +2434,10 @@
         <v>102</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2445,19 +2445,19 @@
         <v>90</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>92</v>
@@ -2477,16 +2477,16 @@
         <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2500,22 +2500,22 @@
         <v>118</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="J18" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2523,16 +2523,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>93</v>
@@ -2541,24 +2541,24 @@
         <v>94</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>96</v>
@@ -2567,7 +2567,7 @@
         <v>95</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2575,16 +2575,16 @@
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>97</v>
@@ -2601,13 +2601,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>94</v>
@@ -2628,7 +2628,7 @@
         <v>68</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H23" s="5"/>
       <c r="J23" s="30" t="s">
@@ -2643,14 +2643,14 @@
         <v>72</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2661,16 +2661,16 @@
         <v>73</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="30" t="s">
@@ -2682,25 +2682,25 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>137</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>153</v>
@@ -2711,28 +2711,28 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2740,31 +2740,31 @@
         <v>76</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2776,19 +2776,19 @@
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>180</v>
-      </c>
       <c r="K29" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2799,14 +2799,14 @@
         <v>59</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" s="28"/>
       <c r="H30" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2817,42 +2817,42 @@
         <v>61</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>57</v>
@@ -2860,19 +2860,19 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="H33" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="D34" s="28"/>
       <c r="E34" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>146</v>
@@ -2881,13 +2881,13 @@
         <v>138</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="D35" s="28"/>
       <c r="E35" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>147</v>
@@ -2896,71 +2896,71 @@
         <v>140</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A36" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>148</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A37" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A38" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A39" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17" thickTop="1">
       <c r="D40" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:10">

--- a/talon.xlsx
+++ b/talon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomcraig/dev/talon_user/talon_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C73DC8-04A9-2444-8412-629C335DBC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBC8E3-868F-B644-84A5-62D0C870E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{794A9345-25FB-5D47-978A-285DA75F2C43}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{794A9345-25FB-5D47-978A-285DA75F2C43}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="322">
   <si>
     <t>&lt;wd&gt;</t>
   </si>
@@ -156,18 +156,12 @@
     <t>show help | help menu</t>
   </si>
   <si>
-    <t>scout [all]</t>
-  </si>
-  <si>
     <t>help scope</t>
   </si>
   <si>
     <t>inside space</t>
   </si>
   <si>
-    <t>scout [all] paste</t>
-  </si>
-  <si>
     <t>running list</t>
   </si>
   <si>
@@ -177,18 +171,12 @@
     <t>trip quote</t>
   </si>
   <si>
-    <t>scout [all] &lt;wds&gt;</t>
-  </si>
-  <si>
     <t>recent list</t>
   </si>
   <si>
     <t>```</t>
   </si>
   <si>
-    <t>scout [all] this</t>
-  </si>
-  <si>
     <t>recent repeat &lt;n&gt;</t>
   </si>
   <si>
@@ -546,24 +534,12 @@
     <t>debug stop</t>
   </si>
   <si>
-    <t>Postman</t>
-  </si>
-  <si>
-    <t>tabs</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
     <t>bar source</t>
   </si>
   <si>
     <t>bar tabs</t>
   </si>
   <si>
-    <t>clippy</t>
-  </si>
-  <si>
     <t>panel term[inal]</t>
   </si>
   <si>
@@ -795,9 +771,6 @@
     <t>sesh pop &lt;w&gt; | sesher &lt;w&gt;</t>
   </si>
   <si>
-    <t>switch to VSCode and select the session</t>
-  </si>
-  <si>
     <t>numbers in the middle of sentences</t>
   </si>
   <si>
@@ -976,13 +949,64 @@
   </si>
   <si>
     <t>git stage &lt;t&gt;</t>
+  </si>
+  <si>
+    <t>command history</t>
+  </si>
+  <si>
+    <t>rerun a command?</t>
+  </si>
+  <si>
+    <t>push tug with t</t>
+  </si>
+  <si>
+    <t>go to the last app used</t>
+  </si>
+  <si>
+    <t>go before &lt;wd&gt;</t>
+  </si>
+  <si>
+    <t>show breakpoints</t>
+  </si>
+  <si>
+    <t>tail?</t>
+  </si>
+  <si>
+    <t>run custom commit message</t>
+  </si>
+  <si>
+    <t>if VSCode is open when toggling turnoff vim mode</t>
+  </si>
+  <si>
+    <t>Go to last application</t>
+  </si>
+  <si>
+    <t>scout [all] | scouter</t>
+  </si>
+  <si>
+    <t>scout [all] paste | scouter paste</t>
+  </si>
+  <si>
+    <t>scout [all] &lt;wds&gt; |  scouter &lt;wds&gt;</t>
+  </si>
+  <si>
+    <t>scout [all] this +</t>
+  </si>
+  <si>
+    <t>reload talon</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>clipboard the search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1106,14 +1130,8 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1312,12 +1330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA02B93"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1515,7 +1527,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -1560,7 +1572,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="30"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1947,13 +1958,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D589DC4-D021-144E-B583-131E1464089A}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -1970,7 +1981,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickTop="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>6</v>
@@ -1988,18 +1999,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="M1" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" thickTop="1">
       <c r="A2" s="12" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>14</v>
@@ -2014,27 +2025,27 @@
         <v>13</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="12" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>19</v>
@@ -2043,33 +2054,33 @@
         <v>20</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="12" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>25</v>
@@ -2078,30 +2089,30 @@
         <v>26</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="12" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="23" t="s">
@@ -2114,27 +2125,27 @@
         <v>27</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>28</v>
@@ -2146,22 +2157,22 @@
         <v>37</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2172,29 +2183,29 @@
         <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>248</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2205,31 +2216,31 @@
         <v>39</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H8" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2237,731 +2248,735 @@
         <v>21</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F9" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" t="s">
         <v>219</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="M9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F11" s="35"/>
       <c r="I11" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E14" s="3"/>
       <c r="J14" s="30" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>116</v>
+        <v>63</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>118</v>
+      <c r="C18" s="33" t="s">
+        <v>306</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>119</v>
+        <v>253</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>120</v>
+        <v>259</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>121</v>
+        <v>260</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>98</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H23" s="5"/>
       <c r="J23" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" s="40"/>
       <c r="H30" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>253</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="E31" s="40"/>
       <c r="H31" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="18" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28" t="s">
-        <v>254</v>
+        <v>52</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>206</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="C34" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="H33" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="D34" s="28"/>
-      <c r="E34" s="28" t="s">
-        <v>305</v>
+      <c r="D34" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
-      <c r="D35" s="28"/>
-      <c r="E35" s="28" t="s">
-        <v>306</v>
+      <c r="D35" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A36" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>312</v>
+      <c r="C36" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>237</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A37" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>264</v>
-      </c>
+      <c r="C37" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="40"/>
       <c r="H37" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A38" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="37" t="s">
-        <v>265</v>
-      </c>
+      <c r="C38" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="40"/>
       <c r="H38" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A39" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>267</v>
+        <v>176</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17" thickTop="1">
-      <c r="D40" s="37" t="s">
-        <v>266</v>
-      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="10" t="s">
@@ -2970,6 +2985,12 @@
       <c r="B41" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="D41" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="10" t="s">
@@ -2978,8 +2999,12 @@
       <c r="B42" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40" t="s">
+        <v>297</v>
+      </c>
       <c r="I42" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2989,8 +3014,14 @@
       <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="D43" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>303</v>
+      </c>
       <c r="I43" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3000,8 +3031,10 @@
       <c r="B44" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
       <c r="I44" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3011,8 +3044,12 @@
       <c r="B45" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40" t="s">
+        <v>311</v>
+      </c>
       <c r="I45" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3023,12 +3060,12 @@
         <v>35</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="I47" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/talon.xlsx
+++ b/talon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomcraig/dev/talon_user/talon_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBC8E3-868F-B644-84A5-62D0C870E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5A8C3-784D-AF48-B5D6-DCDF7751A701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{794A9345-25FB-5D47-978A-285DA75F2C43}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="333">
   <si>
     <t>&lt;wd&gt;</t>
   </si>
@@ -972,9 +972,6 @@
     <t>tail?</t>
   </si>
   <si>
-    <t>run custom commit message</t>
-  </si>
-  <si>
     <t>if VSCode is open when toggling turnoff vim mode</t>
   </si>
   <si>
@@ -1000,6 +997,42 @@
   </si>
   <si>
     <t>clipboard the search</t>
+  </si>
+  <si>
+    <t>grab last executed terminal command: history | tail -n 1 | awk '{$1=""; print $0}'</t>
+  </si>
+  <si>
+    <t>teams go to person</t>
+  </si>
+  <si>
+    <t>team's reactions</t>
+  </si>
+  <si>
+    <t>scout all token</t>
+  </si>
+  <si>
+    <t>swap[cursorless]()</t>
+  </si>
+  <si>
+    <t>marithime_talon</t>
+  </si>
+  <si>
+    <t>katie &lt;dir&gt;</t>
+  </si>
+  <si>
+    <t>remove &lt;dir&gt;</t>
+  </si>
+  <si>
+    <t>win num &lt;n&gt;</t>
+  </si>
+  <si>
+    <t>toggled dark reader</t>
+  </si>
+  <si>
+    <t>move row X+1 to end of row X</t>
+  </si>
+  <si>
+    <t>commit flow</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1560,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -1572,6 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="30"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="43" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1956,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D589DC4-D021-144E-B583-131E1464089A}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2010,7 +2044,7 @@
     </row>
     <row r="2" spans="1:14" ht="17" thickTop="1">
       <c r="A2" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>14</v>
@@ -2042,7 +2076,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>159</v>
@@ -2077,7 +2111,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>160</v>
@@ -2112,7 +2146,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="23" t="s">
@@ -2636,7 +2670,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>117</v>
@@ -2654,7 +2688,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>118</v>
@@ -2671,7 +2705,7 @@
         <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>194</v>
@@ -2689,7 +2723,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>75</v>
@@ -2712,10 +2746,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>331</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>192</v>
@@ -2735,9 +2772,9 @@
         <v>72</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2760,7 +2797,10 @@
       <c r="A29" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>54</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -2780,13 +2820,15 @@
       <c r="A30" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="40" t="s">
+        <v>319</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>167</v>
       </c>
@@ -2798,13 +2840,12 @@
       <c r="A31" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="E31" s="40"/>
+      <c r="E31" t="s">
+        <v>332</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>244</v>
       </c>
@@ -2819,14 +2860,11 @@
       <c r="A32" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>314</v>
-      </c>
       <c r="E32" s="40" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>141</v>
@@ -2839,14 +2877,11 @@
       <c r="A33" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="40" t="s">
-        <v>312</v>
-      </c>
       <c r="E33" s="40" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>266</v>
@@ -2859,14 +2894,11 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>321</v>
-      </c>
       <c r="E34" s="40" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>142</v>
@@ -2879,11 +2911,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
-      <c r="D35" s="40" t="s">
-        <v>205</v>
-      </c>
       <c r="E35" s="40" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>143</v>
@@ -2905,11 +2934,8 @@
       <c r="C36" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>307</v>
-      </c>
       <c r="E36" s="40" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>144</v>
@@ -2928,10 +2954,9 @@
       <c r="C37" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="40" t="s">
+        <v>204</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>283</v>
       </c>
@@ -2949,10 +2974,9 @@
       <c r="C38" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="40" t="s">
+        <v>311</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>298</v>
       </c>
@@ -2967,16 +2991,17 @@
       <c r="C39" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>308</v>
-      </c>
       <c r="E39" s="40" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17" thickTop="1">
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
+      <c r="C40" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="10" t="s">
@@ -2985,11 +3010,8 @@
       <c r="B41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="40" t="s">
-        <v>319</v>
-      </c>
       <c r="E41" s="40" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2999,9 +3021,8 @@
       <c r="B42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="40"/>
       <c r="E42" s="40" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>137</v>
@@ -3014,11 +3035,8 @@
       <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="40" t="s">
-        <v>310</v>
-      </c>
       <c r="E43" s="40" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>132</v>
@@ -3031,8 +3049,9 @@
       <c r="B44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="E44" s="40" t="s">
+        <v>323</v>
+      </c>
       <c r="I44" s="6" t="s">
         <v>135</v>
       </c>
@@ -3044,9 +3063,8 @@
       <c r="B45" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="40"/>
       <c r="E45" s="40" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>138</v>
@@ -3059,13 +3077,74 @@
       <c r="B46" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="E46" s="40" t="s">
+        <v>296</v>
+      </c>
       <c r="I46" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:10">
+      <c r="E47" s="40" t="s">
+        <v>324</v>
+      </c>
       <c r="I47" s="6" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="E48" s="40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="40" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/talon.xlsx
+++ b/talon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomcraig/dev/talon_user/talon_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5A8C3-784D-AF48-B5D6-DCDF7751A701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98C1E7-3BCF-8F4B-A695-0383A3F0D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{794A9345-25FB-5D47-978A-285DA75F2C43}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="352">
   <si>
     <t>&lt;wd&gt;</t>
   </si>
@@ -291,9 +291,6 @@
     <t>skis</t>
   </si>
   <si>
-    <t>lack, rack</t>
-  </si>
-  <si>
     <t>split next | last</t>
   </si>
   <si>
@@ -318,12 +315,6 @@
     <t>pilot yes | no</t>
   </si>
   <si>
-    <t>pilot nope</t>
-  </si>
-  <si>
-    <t>want to do cmd enter for inline</t>
-  </si>
-  <si>
     <t>foot | feet</t>
   </si>
   <si>
@@ -477,9 +468,6 @@
     <t>file create sibling</t>
   </si>
   <si>
-    <t>file show</t>
-  </si>
-  <si>
     <t>file clone</t>
   </si>
   <si>
@@ -498,9 +486,6 @@
     <t>git publish</t>
   </si>
   <si>
-    <t>pull request create</t>
-  </si>
-  <si>
     <t>"model …"</t>
   </si>
   <si>
@@ -510,15 +495,9 @@
     <t>splay &lt;n&gt;</t>
   </si>
   <si>
-    <t>splay next</t>
-  </si>
-  <si>
     <t>focus &lt;app name&gt;</t>
   </si>
   <si>
-    <t>luanch &lt;app name&gt;</t>
-  </si>
-  <si>
     <t>bug next</t>
   </si>
   <si>
@@ -528,9 +507,6 @@
     <t>debug start</t>
   </si>
   <si>
-    <t>breakpoint</t>
-  </si>
-  <si>
     <t>debug stop</t>
   </si>
   <si>
@@ -627,9 +603,6 @@
     <t>clean code</t>
   </si>
   <si>
-    <t>convert to &lt;language&gt;</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -639,12 +612,6 @@
     <t>ask</t>
   </si>
   <si>
-    <t>model &lt;p&gt; below clipped</t>
-  </si>
-  <si>
-    <t>model &lt;p&gt; below</t>
-  </si>
-  <si>
     <t>pick emoji</t>
   </si>
   <si>
@@ -756,12 +723,6 @@
     <t>re run it [back]</t>
   </si>
   <si>
-    <t>change next</t>
-  </si>
-  <si>
-    <t>change last</t>
-  </si>
-  <si>
     <t>say python void over dotted manage py over void say shell</t>
   </si>
   <si>
@@ -777,9 +738,6 @@
     <t>${ }</t>
   </si>
   <si>
-    <t>bash</t>
-  </si>
-  <si>
     <t>pilot change &lt;t&gt;</t>
   </si>
   <si>
@@ -849,9 +807,6 @@
     <t>General UI</t>
   </si>
   <si>
-    <t>Debugging</t>
-  </si>
-  <si>
     <t>wiki notes</t>
   </si>
   <si>
@@ -873,9 +828,6 @@
     <t>folder new</t>
   </si>
   <si>
-    <t>push and tug with a target</t>
-  </si>
-  <si>
     <t>no breaks | toggle breaksk</t>
   </si>
   <si>
@@ -915,12 +867,6 @@
     <t>tile swap loop</t>
   </si>
   <si>
-    <t>git revert line</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
     <t>trip grave</t>
   </si>
   <si>
@@ -942,9 +888,6 @@
     <t>head up show | hide | close</t>
   </si>
   <si>
-    <t>git revert block | file</t>
-  </si>
-  <si>
     <t>git branch choose base</t>
   </si>
   <si>
@@ -960,21 +903,12 @@
     <t>push tug with t</t>
   </si>
   <si>
-    <t>go to the last app used</t>
-  </si>
-  <si>
     <t>go before &lt;wd&gt;</t>
   </si>
   <si>
-    <t>show breakpoints</t>
-  </si>
-  <si>
     <t>tail?</t>
   </si>
   <si>
-    <t>if VSCode is open when toggling turnoff vim mode</t>
-  </si>
-  <si>
     <t>Go to last application</t>
   </si>
   <si>
@@ -984,9 +918,6 @@
     <t>scout [all] paste | scouter paste</t>
   </si>
   <si>
-    <t>scout [all] &lt;wds&gt; |  scouter &lt;wds&gt;</t>
-  </si>
-  <si>
     <t>scout [all] this +</t>
   </si>
   <si>
@@ -996,24 +927,12 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t>clipboard the search</t>
-  </si>
-  <si>
     <t>grab last executed terminal command: history | tail -n 1 | awk '{$1=""; print $0}'</t>
   </si>
   <si>
-    <t>teams go to person</t>
-  </si>
-  <si>
-    <t>team's reactions</t>
-  </si>
-  <si>
     <t>scout all token</t>
   </si>
   <si>
-    <t>swap[cursorless]()</t>
-  </si>
-  <si>
     <t>marithime_talon</t>
   </si>
   <si>
@@ -1029,10 +948,148 @@
     <t>toggled dark reader</t>
   </si>
   <si>
-    <t>move row X+1 to end of row X</t>
-  </si>
-  <si>
-    <t>commit flow</t>
+    <t>actions.speech.set_microphone</t>
+  </si>
+  <si>
+    <t>delete a change</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How to chuck a token past postline.</t>
+  </si>
+  <si>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>Debugging and Testing</t>
+  </si>
+  <si>
+    <t>scouter this</t>
+  </si>
+  <si>
+    <t>Toggle regex inside file search</t>
+  </si>
+  <si>
+    <t>docstring</t>
+  </si>
+  <si>
+    <t>test debug</t>
+  </si>
+  <si>
+    <t>create macros, or series of commands that I can repeat</t>
+  </si>
+  <si>
+    <t>eye hover</t>
+  </si>
+  <si>
+    <t>square, r square</t>
+  </si>
+  <si>
+    <t>breakpoint [&lt;n&gt;]</t>
+  </si>
+  <si>
+    <t>file show | file open folder</t>
+  </si>
+  <si>
+    <t>launch &lt;app name&gt;</t>
+  </si>
+  <si>
+    <t>git open working file</t>
+  </si>
+  <si>
+    <t>git file history</t>
+  </si>
+  <si>
+    <t>next instance of this</t>
+  </si>
+  <si>
+    <t>move to gaze point with scroll</t>
+  </si>
+  <si>
+    <t>pr create</t>
+  </si>
+  <si>
+    <t>git revert line | block | all</t>
+  </si>
+  <si>
+    <t>pr refresh</t>
+  </si>
+  <si>
+    <t>pilot next | previous</t>
+  </si>
+  <si>
+    <t>for navigating chat changes</t>
+  </si>
+  <si>
+    <t>for accepting chat changes</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; below</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; below clipped</t>
+  </si>
+  <si>
+    <t>convert to &lt;lang&gt;</t>
+  </si>
+  <si>
+    <t>scout [all] | scouter &lt;wds&gt;</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>go to [&lt;wds&gt;]</t>
+  </si>
+  <si>
+    <t>format space betw</t>
+  </si>
+  <si>
+    <t>VSCode git andreas</t>
+  </si>
+  <si>
+    <t>snip func</t>
+  </si>
+  <si>
+    <t>do not scroll if I am not looking at the main screen</t>
+  </si>
+  <si>
+    <t>enable, disable camera with hotkey</t>
+  </si>
+  <si>
+    <t>show log (in terminal window)</t>
+  </si>
+  <si>
+    <t>automatically select a microphone</t>
+  </si>
+  <si>
+    <t>git take both</t>
+  </si>
+  <si>
+    <t>change next,last</t>
+  </si>
+  <si>
+    <t>[git] conflict next,last</t>
+  </si>
+  <si>
+    <t>chat ask</t>
+  </si>
+  <si>
+    <t>for inline</t>
+  </si>
+  <si>
+    <t>revise with from &lt;wds&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>insert with &lt;a0&gt; &lt;wds&gt;</t>
+  </si>
+  <si>
+    <t>append with &lt;a0&gt; &lt;wds&gt;</t>
+  </si>
+  <si>
+    <t>prepend with &lt;a0&gt; &lt;wds&gt;</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1617,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -1574,7 +1631,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="35"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="18"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="25"/>
@@ -1593,7 +1649,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="35" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="10" xfId="39" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" xfId="34" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="32" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="15" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="15" applyFont="1"/>
@@ -1605,7 +1660,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="30"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="43" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1990,25 +2044,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D589DC4-D021-144E-B583-131E1464089A}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="38" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="38" customWidth="1"/>
     <col min="13" max="13" width="26.140625" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
@@ -2017,7 +2072,7 @@
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2033,315 +2088,310 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="M1" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" thickTop="1">
       <c r="A2" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>227</v>
+      <c r="H2" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>178</v>
+        <v>117</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>228</v>
+      <c r="H3" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>150</v>
+        <v>118</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>212</v>
+        <v>171</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>229</v>
+      <c r="H4" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>304</v>
+        <v>125</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>285</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>151</v>
+      <c r="H5" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>231</v>
+      <c r="H6" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="J9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="H10" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>282</v>
+      <c r="J10" s="29" t="s">
+        <v>266</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2349,189 +2399,186 @@
         <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11" s="35"/>
+      <c r="E11" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="33"/>
       <c r="I11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>269</v>
+        <v>124</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>279</v>
+      <c r="D12" s="39" t="s">
+        <v>233</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>288</v>
+      <c r="D13" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>272</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>154</v>
+        <v>128</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>102</v>
+        <v>214</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="J14" s="30" t="s">
-        <v>251</v>
+      <c r="J14" s="29" t="s">
+        <v>319</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>265</v>
+        <v>215</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>251</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>293</v>
+      <c r="F15" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>320</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>173</v>
+        <v>85</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>305</v>
+      <c r="C17" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2539,80 +2586,74 @@
         <v>60</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="C19" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>202</v>
+        <v>329</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>201</v>
+        <v>330</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>275</v>
+      <c r="I20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2620,125 +2661,135 @@
         <v>62</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="J23" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="K26" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2746,405 +2797,477 @@
         <v>71</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>331</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="18" t="s">
+      <c r="C28" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="40" t="s">
+      <c r="E31" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E31" t="s">
-        <v>332</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="J31" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="40" t="s">
+      <c r="E32" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J32" s="36" t="s">
+      <c r="E33" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17" thickBot="1">
+      <c r="C35" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A36" s="7" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="C34" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1">
-      <c r="E35" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" thickTop="1" thickBot="1">
-      <c r="A36" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>313</v>
+        <v>241</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>291</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18" thickTop="1" thickBot="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18" thickTop="1" thickBot="1">
       <c r="A37" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>204</v>
+      <c r="C37" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18" thickTop="1" thickBot="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18" thickTop="1" thickBot="1">
       <c r="A38" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>311</v>
+      <c r="C38" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>290</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="18" thickTop="1" thickBot="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18" thickTop="1" thickBot="1">
       <c r="A39" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17" thickTop="1">
+      <c r="C40" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E39" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="17" thickTop="1">
-      <c r="C40" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="E41" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="40" t="s">
-        <v>203</v>
+      <c r="D42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>335</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="40" t="s">
-        <v>322</v>
+      <c r="E43" s="38" t="s">
+        <v>311</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>323</v>
-      </c>
+      <c r="C44" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s">
+        <v>321</v>
+      </c>
+      <c r="E44" s="38"/>
       <c r="I44" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="C45" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>322</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="I45" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="40" t="s">
-        <v>296</v>
+      <c r="C46" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>278</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="E47" s="40" t="s">
-        <v>324</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="C47" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>338</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>298</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="E48" s="40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="C48" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="E51" s="38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="E52" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="E53" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="E54" s="38"/>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="E55" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="E56" s="38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="E57" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="E58" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="E59" s="38" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="40" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="40" t="s">
-        <v>206</v>
+    <row r="60" spans="3:5">
+      <c r="E60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="E61" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="E63" s="38" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
